--- a/datas/data.xlsx
+++ b/datas/data.xlsx
@@ -4,18 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" activeTab="8"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
-    <sheet name="登录" sheetId="1" r:id="rId1"/>
-    <sheet name="搜索" sheetId="2" r:id="rId2"/>
-    <sheet name="下单支付流程" sheetId="6" r:id="rId3"/>
-    <sheet name="修改用户头像流程" sheetId="7" r:id="rId4"/>
-    <sheet name="注册流程" sheetId="8" r:id="rId5"/>
-    <sheet name="erp项目测试" sheetId="9" r:id="rId6"/>
-    <sheet name="充值项目测试" sheetId="10" r:id="rId7"/>
-    <sheet name="登录流程" sheetId="12" r:id="rId8"/>
-    <sheet name="单接口验证" sheetId="13" r:id="rId9"/>
+    <sheet name="登录流程" sheetId="12" r:id="rId1"/>
+    <sheet name="单接口验证" sheetId="13" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="201">
   <si>
     <t>用例编号</t>
   </si>
@@ -43,328 +36,46 @@
     <t>用例标题</t>
   </si>
   <si>
+    <t>请求地址</t>
+  </si>
+  <si>
     <t>请求方法</t>
   </si>
   <si>
-    <t>请求地址</t>
+    <t>请求头</t>
   </si>
   <si>
     <t>请求参数</t>
   </si>
   <si>
-    <t>请求头</t>
-  </si>
-  <si>
     <t>期望结果</t>
   </si>
   <si>
-    <t>登录成功</t>
+    <t>数据库断言</t>
+  </si>
+  <si>
+    <t>提取响应字段</t>
+  </si>
+  <si>
+    <t>获取注册短信验证码</t>
+  </si>
+  <si>
+    <t>https://minicourse.test.venhalo.com/api/v1/auth/verification/code</t>
   </si>
   <si>
     <t>POST</t>
   </si>
   <si>
-    <t>http://shop.lemonban.com:8107/login</t>
-  </si>
-  <si>
-    <t>{"principal": "lemon_auto", "credentials": "lemon123456", "appType": 3, "loginType": 0}</t>
-  </si>
-  <si>
-    <t>{"Content-Type":"application/json"}</t>
-  </si>
-  <si>
-    <t>{"status_code":200,"$.nickName":"lemon_auto"}</t>
-  </si>
-  <si>
-    <t>登录异常-用户名不正确</t>
-  </si>
-  <si>
-    <t>{"principal": "lemon_autox", "credentials": "lemon123456", "appType": 3, "loginType": 0}</t>
-  </si>
-  <si>
-    <t>{"status_code":400,"text":"账号或密码不正确"}</t>
-  </si>
-  <si>
-    <t>登录异常-不传密码参数</t>
-  </si>
-  <si>
-    <t>{"principal": "lemon_auto",  "appType": 3, "loginType": 0}</t>
-  </si>
-  <si>
-    <t>{"status_code":500}</t>
-  </si>
-  <si>
-    <t>登录异常-不传用户名参数</t>
-  </si>
-  <si>
-    <t>{"credentials": "lemon123456", "appType": 3, "loginType": 0}</t>
-  </si>
-  <si>
-    <t>{"status_code":400}</t>
-  </si>
-  <si>
-    <t>搜索存在的商品</t>
-  </si>
-  <si>
-    <t>GET</t>
-  </si>
-  <si>
-    <t>http://mall.lemonban.com:8107/search/searchProdPage</t>
-  </si>
-  <si>
-    <t>{"prodName":"犬夜叉"}</t>
-  </si>
-  <si>
-    <t>{"status_code":200}</t>
-  </si>
-  <si>
-    <t>搜索异常-商品不存在</t>
-  </si>
-  <si>
-    <t>{"prodName":"XXXXXX"}</t>
-  </si>
-  <si>
-    <t>提取响应字段</t>
-  </si>
-  <si>
-    <t>数据库断言</t>
-  </si>
-  <si>
     <t>{"Content-Type":"application/json;charset=utf-8"}</t>
   </si>
   <si>
-    <t>{"token":"$..access_token"}</t>
-  </si>
-  <si>
-    <t>搜索商品</t>
-  </si>
-  <si>
-    <t>http://shop.lemonban.com:8107/search/searchProdPage</t>
-  </si>
-  <si>
-    <t>{"prodName":"凤凰涅槃紫色蓝尾凤凰胸针"}</t>
-  </si>
-  <si>
-    <t>{"prod_id":"$..prodId"}</t>
-  </si>
-  <si>
-    <t>进入到商品详情页</t>
-  </si>
-  <si>
-    <t>http://shop.lemonban.com:8107/prod/prodInfo</t>
-  </si>
-  <si>
-    <t>{"prodId":${prod_id}}</t>
-  </si>
-  <si>
-    <t>{"sku_id":"$..skuId"}</t>
-  </si>
-  <si>
-    <t>添加到放购物车</t>
-  </si>
-  <si>
-    <t>http://shop.lemonban.com:8107/p/shopCart/changeItem</t>
-  </si>
-  <si>
-    <t>{"Authorization":"bearer${token}","Content-Type":"application/json;charset=utf-8"}</t>
-  </si>
-  <si>
-    <t>{"basketId": 0, "count": 1, "prodId": ${prod_id}, "shopId": 1, "skuId": ${sku_id}}</t>
-  </si>
-  <si>
-    <t>查询购物车</t>
-  </si>
-  <si>
-    <t>http://shop.lemonban.com:8107/p/shopCart/info</t>
-  </si>
-  <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>{"basket_id":"$..basketId"}</t>
-  </si>
-  <si>
-    <t>确认订单</t>
-  </si>
-  <si>
-    <t>http://shop.lemonban.com:8107/p/order/confirm</t>
-  </si>
-  <si>
-    <t>{"addrId":0,"basketIds":[${basket_id}],"couponIds":[],"isScorePay":0,"userChangeCoupon":0,"userUseScore":0,"uuid":"87140837-672c-410a-89d1-be4d690a401e"}</t>
-  </si>
-  <si>
-    <t>提交订单</t>
-  </si>
-  <si>
-    <t>http://shop.lemonban.com:8107/p/order/submit</t>
-  </si>
-  <si>
-    <t>{"orderShopParam":[{"remarks":"","shopId":1}],"uuid":"87140837-672c-410a-89d1-be4d690a401e"}</t>
-  </si>
-  <si>
-    <t>{"order_number":"$.orderNumbers"}</t>
-  </si>
-  <si>
-    <t>{"select count(*) from tz_order where order_number ='${order_number}';":1}</t>
-  </si>
-  <si>
-    <t>选择支付方式</t>
-  </si>
-  <si>
-    <t>http://shop.lemonban.com:8107/p/order/pay</t>
-  </si>
-  <si>
-    <t>{"payType":3,"orderNumbers":"${order_number}"}</t>
-  </si>
-  <si>
-    <t>模拟回调支付</t>
-  </si>
-  <si>
-    <t>http://mall.lemonban.com:8107/notice/pay/3</t>
-  </si>
-  <si>
-    <t>{"payNo":"${order_number}","bizPayNo":"xxxxx","isPaySuccess":"true"}</t>
-  </si>
-  <si>
-    <t>查询订单支付状态</t>
-  </si>
-  <si>
-    <t>http://shop.lemonban.com:8107/p/order/isPay/${order_number}</t>
-  </si>
-  <si>
-    <t>{"Authorization":"bearer${token}"}</t>
-  </si>
-  <si>
-    <t>{"status_code":200,"text":"true"}</t>
-  </si>
-  <si>
-    <t>{"select status from tz_order where order_number ='${order_number}';":2}</t>
-  </si>
-  <si>
-    <t>{"token":"$.access_token","nick_name":"$.nickName"}</t>
-  </si>
-  <si>
-    <t>进入到个人中心</t>
-  </si>
-  <si>
-    <t>http://shop.lemonban.com:8107/p/user/centerInfo</t>
-  </si>
-  <si>
-    <t>进入到用户账户页面</t>
-  </si>
-  <si>
-    <t>http://shop.lemonban.com:8107/p/user/userInfo</t>
-  </si>
-  <si>
-    <t>{"phone":"$.userMobile"}</t>
-  </si>
-  <si>
-    <t>上传图片</t>
-  </si>
-  <si>
-    <t>http://shop.lemonban.com:8107/p/file/upload</t>
-  </si>
-  <si>
-    <t>{"Authorization":"bearer${token}","Content-Type":"multipart/form-data"}</t>
-  </si>
-  <si>
-    <t>{'file':('datas/test.png',open('datas/test.png',mode='rb'),'images/png')}</t>
-  </si>
-  <si>
-    <t>{"url":"$.resourcesUrl","path":"$.filePath"}</t>
-  </si>
-  <si>
-    <t>保存设置</t>
-  </si>
-  <si>
-    <t>http://shop.lemonban.com:8107/p/user/setUserInfo</t>
-  </si>
-  <si>
-    <t>PUT</t>
-  </si>
-  <si>
-    <t>{"Authorization":"bearer${token}","Content-Type":"application/json; charset=UTF-8"}</t>
-  </si>
-  <si>
-    <t>{"avatarUrl":"${url}${path}","nickName":"${nick_name}","userMobile":"${phone}","auth":{}}</t>
-  </si>
-  <si>
-    <t>获取注册短信验证码</t>
-  </si>
-  <si>
-    <t>http://shop.lemonban.com:8107/user/sendRegisterSms</t>
-  </si>
-  <si>
-    <t>{"phone":"${mobile_phone},"role": "parent"}</t>
+    <t>{"phone":"${mobile_phone}","role": "parent"}</t>
+  </si>
+  <si>
+    <t>{"code" :"$.data.code"}</t>
   </si>
   <si>
     <t>校验注册短信验证码并登录</t>
-  </si>
-  <si>
-    <t>http://shop.lemonban.com:8107/user/checkRegisterSms</t>
-  </si>
-  <si>
-    <t>{"mobile":"${mobile_phone}","validCode":"${code}"}</t>
-  </si>
-  <si>
-    <t>{"sms_flag":"text"}</t>
-  </si>
-  <si>
-    <t>真正的注册接口请求</t>
-  </si>
-  <si>
-    <t>http://shop.lemonban.com:8107/user/registerOrBindUser</t>
-  </si>
-  <si>
-    <t>{"appType":3,"checkRegisterSmsFlag":"${sms_flag}","mobile":"${mobile_phone}","userName":"${user_name}","password":"123456","registerOrBind":1,"validateType":1}</t>
-  </si>
-  <si>
-    <t>{"select count(*) from tz_user where user_mobile = '${mobile_phone}';":1}</t>
-  </si>
-  <si>
-    <t>登录</t>
-  </si>
-  <si>
-    <t>http://erp.lemonban.com/user/login</t>
-  </si>
-  <si>
-    <t>{"Content-Type":"application/x-www-form-urlencoded; charset=UTF-8"}</t>
-  </si>
-  <si>
-    <t>{"loginame":"admin","password":"${encypt_password}"}</t>
-  </si>
-  <si>
-    <t>http://api.lemonban.com:8788/futureloan/member/login</t>
-  </si>
-  <si>
-    <t>{"X-Lemonban-Media-Type": "lemonban.v3", "Content-Type": "application/json"}</t>
-  </si>
-  <si>
-    <t>{"mobile_phone": "13323231111", "pwd": "12345678"}</t>
-  </si>
-  <si>
-    <t>{"id":"$..id","token":"$...token"}</t>
-  </si>
-  <si>
-    <t>充值</t>
-  </si>
-  <si>
-    <t>http://api.lemonban.com:8788/futureloan/member/recharge</t>
-  </si>
-  <si>
-    <t>{"X-Lemonban-Media-Type": "lemonban.v3", "Content-Type": "application/json","Authorization": "Bearer ${token}"}</t>
-  </si>
-  <si>
-    <t>{"member_id": ${id}, "amount": 10000.0, "timestamp": ${timestamp}, "sign": "${sign}"}</t>
-  </si>
-  <si>
-    <t>https://minicourse.test.venhalo.com/api/v1/auth/verification/code</t>
-  </si>
-  <si>
-    <t>{"phone":"${mobile_phone}","role": "parent"}</t>
-  </si>
-  <si>
-    <t>{"code" :"$.data.code"}</t>
   </si>
   <si>
     <t>https://minicourse.test.venhalo.com//api/v1/auth/verification/verify</t>
@@ -408,6 +119,9 @@
     <t>https://minicourse.test.venhalo.com/api/v1/user/par</t>
   </si>
   <si>
+    <t>GET</t>
+  </si>
+  <si>
     <t>{"$.data.children[0].name":"测试绑定"}</t>
   </si>
   <si>
@@ -418,6 +132,9 @@
   </si>
   <si>
     <t>https://minicourse.test.venhalo.com/api/v1/user/stu</t>
+  </si>
+  <si>
+    <t>PUT</t>
   </si>
   <si>
     <t>{
@@ -936,7 +653,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -951,17 +668,6 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -1123,12 +829,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1238,6 +938,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1434,137 +1140,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1591,18 +1297,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1915,1101 +1609,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G5"/>
-  <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="6"/>
-  <cols>
-    <col min="1" max="1" width="9.75" customWidth="1"/>
-    <col min="2" max="2" width="24.125" customWidth="1"/>
-    <col min="3" max="3" width="9.75" customWidth="1"/>
-    <col min="4" max="4" width="38.25" customWidth="1"/>
-    <col min="5" max="5" width="42.625" customWidth="1"/>
-    <col min="6" max="6" width="35.875" customWidth="1"/>
-    <col min="7" max="7" width="40.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" ht="40.5" spans="1:7">
-      <c r="A2" s="7">
-        <v>1</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" ht="40.5" spans="1:7">
-      <c r="A3" s="7">
-        <v>2</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" ht="27" spans="1:7">
-      <c r="A4" s="7">
-        <v>3</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" ht="27" spans="1:7">
-      <c r="A5" s="7">
-        <v>4</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D5" r:id="rId1" display="http://shop.lemonban.com:8107/login"/>
-    <hyperlink ref="D4" r:id="rId1" display="http://shop.lemonban.com:8107/login"/>
-    <hyperlink ref="D3" r:id="rId1" display="http://shop.lemonban.com:8107/login"/>
-    <hyperlink ref="D2" r:id="rId1" display="http://shop.lemonban.com:8107/login"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:G3"/>
-  <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="6"/>
-  <cols>
-    <col min="1" max="1" width="9.75" customWidth="1"/>
-    <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="9.75" customWidth="1"/>
-    <col min="4" max="4" width="55.5" customWidth="1"/>
-    <col min="5" max="5" width="23.875" customWidth="1"/>
-    <col min="6" max="6" width="7.75" customWidth="1"/>
-    <col min="7" max="7" width="21.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="7">
-        <v>1</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="7">
-        <v>2</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="http://mall.lemonban.com:8107/search/searchProdPage"/>
-    <hyperlink ref="D3" r:id="rId1" display="http://mall.lemonban.com:8107/search/searchProdPage"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:I11"/>
-  <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="9.75" customWidth="1"/>
-    <col min="2" max="2" width="17.25" customWidth="1"/>
-    <col min="3" max="3" width="35.875" customWidth="1"/>
-    <col min="4" max="4" width="7.75" customWidth="1"/>
-    <col min="5" max="5" width="42.5" customWidth="1"/>
-    <col min="6" max="6" width="39.5" customWidth="1"/>
-    <col min="7" max="7" width="32.75" customWidth="1"/>
-    <col min="8" max="8" width="30" customWidth="1"/>
-    <col min="9" max="9" width="27" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" ht="40.5" spans="1:9">
-      <c r="A2" s="7">
-        <v>1</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="I2" s="7"/>
-    </row>
-    <row r="3" ht="27" spans="1:9">
-      <c r="A3" s="7">
-        <v>2</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="I3" s="7"/>
-    </row>
-    <row r="4" ht="27" spans="1:9">
-      <c r="A4" s="7">
-        <v>3</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="I4" s="7"/>
-    </row>
-    <row r="5" ht="40.5" spans="1:9">
-      <c r="A5" s="7">
-        <v>4</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-    </row>
-    <row r="6" ht="27" spans="1:9">
-      <c r="A6" s="7">
-        <v>5</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="I6" s="7"/>
-    </row>
-    <row r="7" ht="67.5" spans="1:9">
-      <c r="A7" s="7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-    </row>
-    <row r="8" ht="54" spans="1:9">
-      <c r="A8" s="7">
-        <v>7</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" ht="27" spans="1:9">
-      <c r="A9" s="7">
-        <v>8</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-    </row>
-    <row r="10" ht="27" spans="1:9">
-      <c r="A10" s="7">
-        <v>9</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-    </row>
-    <row r="11" ht="54" spans="1:9">
-      <c r="A11" s="7">
-        <v>10</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" display="http://shop.lemonban.com:8107/search/searchProdPage" tooltip="http://shop.lemonban.com:8107/search/searchProdPage"/>
-    <hyperlink ref="C4" r:id="rId2" display="http://shop.lemonban.com:8107/prod/prodInfo" tooltip="http://shop.lemonban.com:8107/prod/prodInfo"/>
-    <hyperlink ref="C7" r:id="rId3" display="http://shop.lemonban.com:8107/p/order/confirm"/>
-    <hyperlink ref="C6" r:id="rId4" display="http://shop.lemonban.com:8107/p/shopCart/info" tooltip="http://shop.lemonban.com:8107/p/shopCart/info"/>
-    <hyperlink ref="C8" r:id="rId5" display="http://shop.lemonban.com:8107/p/order/submit"/>
-    <hyperlink ref="C5" r:id="rId6" display="http://shop.lemonban.com:8107/p/shopCart/changeItem"/>
-    <hyperlink ref="C9" r:id="rId7" display="http://shop.lemonban.com:8107/p/order/pay"/>
-    <hyperlink ref="C10" r:id="rId8" display="http://mall.lemonban.com:8107/notice/pay/3"/>
-    <hyperlink ref="C11" r:id="rId9" display="http://shop.lemonban.com:8107/p/order/isPay/${order_number}" tooltip="http://shop.lemonban.com:8107/p/order/isPay/${order_number}"/>
-  </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:H6"/>
-  <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="7"/>
-  <cols>
-    <col min="1" max="1" width="9.25" customWidth="1"/>
-    <col min="2" max="2" width="19.25" customWidth="1"/>
-    <col min="3" max="3" width="41" customWidth="1"/>
-    <col min="4" max="4" width="9.75" customWidth="1"/>
-    <col min="5" max="5" width="47.875" customWidth="1"/>
-    <col min="6" max="6" width="47.5" customWidth="1"/>
-    <col min="7" max="7" width="21.625" customWidth="1"/>
-    <col min="8" max="8" width="38" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="15" spans="1:8">
-      <c r="A1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" ht="27" spans="1:8">
-      <c r="A2" s="12">
-        <v>1</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" ht="27" spans="1:8">
-      <c r="A3" s="12">
-        <v>2</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" s="7"/>
-    </row>
-    <row r="4" ht="27" spans="1:8">
-      <c r="A4" s="12">
-        <v>3</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="5" ht="27" spans="1:8">
-      <c r="A5" s="12">
-        <v>4</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="6" ht="27" spans="1:8">
-      <c r="A6" s="12">
-        <v>5</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" s="7"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" display="http://shop.lemonban.com:8107/p/user/centerInfo" tooltip="http://shop.lemonban.com:8107/p/user/centerInfo"/>
-    <hyperlink ref="C4" r:id="rId2" display="http://shop.lemonban.com:8107/p/user/userInfo"/>
-    <hyperlink ref="C5" r:id="rId3" display="http://shop.lemonban.com:8107/p/file/upload"/>
-    <hyperlink ref="C6" r:id="rId4" display="http://shop.lemonban.com:8107/p/user/setUserInfo"/>
-  </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:I4"/>
-  <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
-  <cols>
-    <col min="1" max="1" width="9.75" customWidth="1"/>
-    <col min="2" max="2" width="29.375" customWidth="1"/>
-    <col min="3" max="3" width="38.25" customWidth="1"/>
-    <col min="4" max="4" width="9.75" customWidth="1"/>
-    <col min="5" max="5" width="37.625" customWidth="1"/>
-    <col min="6" max="6" width="60.625" customWidth="1"/>
-    <col min="7" max="7" width="21.625" customWidth="1"/>
-    <col min="8" max="8" width="32.875" customWidth="1"/>
-    <col min="9" max="9" width="20.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" ht="40.5" spans="1:9">
-      <c r="A2" s="7">
-        <v>1</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-    </row>
-    <row r="3" ht="40.5" spans="1:9">
-      <c r="A3" s="7">
-        <v>2</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" ht="40.5" spans="1:9">
-      <c r="A4" s="7">
-        <v>3</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="I4" s="7"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" display="http://shop.lemonban.com:8107/user/checkRegisterSms" tooltip="http://shop.lemonban.com:8107/user/checkRegisterSms"/>
-    <hyperlink ref="C4" r:id="rId2" display="http://shop.lemonban.com:8107/user/registerOrBindUser" tooltip="http://shop.lemonban.com:8107/user/registerOrBindUser"/>
-    <hyperlink ref="C2" r:id="rId3" display="http://shop.lemonban.com:8107/user/sendRegisterSms"/>
-  </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
-  <cols>
-    <col min="1" max="2" width="9.75" customWidth="1"/>
-    <col min="3" max="3" width="27" customWidth="1"/>
-    <col min="4" max="4" width="9.75" customWidth="1"/>
-    <col min="5" max="5" width="44" customWidth="1"/>
-    <col min="6" max="6" width="37.75" customWidth="1"/>
-    <col min="7" max="7" width="21.625" customWidth="1"/>
-    <col min="8" max="8" width="11.875" customWidth="1"/>
-    <col min="9" max="9" width="14.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" ht="27" spans="1:9">
-      <c r="A2" s="7">
-        <v>1</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="http://erp.lemonban.com/user/login"/>
-  </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:I3"/>
-  <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
-  <cols>
-    <col min="1" max="2" width="9.75" style="9" customWidth="1"/>
-    <col min="3" max="3" width="39.5" style="9" customWidth="1"/>
-    <col min="4" max="4" width="9.75" style="9" customWidth="1"/>
-    <col min="5" max="5" width="59.75" style="9" customWidth="1"/>
-    <col min="6" max="6" width="41.25" style="9" customWidth="1"/>
-    <col min="7" max="7" width="21.625" style="9" customWidth="1"/>
-    <col min="8" max="8" width="11.875" style="9" customWidth="1"/>
-    <col min="9" max="9" width="29.875" style="9" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="9"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" ht="27" spans="1:9">
-      <c r="A2" s="7">
-        <v>1</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="10" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="3" ht="40.5" spans="1:9">
-      <c r="A3" s="7">
-        <v>2</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="http://api.lemonban.com:8788/futureloan/member/login" tooltip="http://api.lemonban.com:8788/futureloan/member/login"/>
-    <hyperlink ref="C3" r:id="rId2" display="http://api.lemonban.com:8788/futureloan/member/recharge"/>
-  </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3030,25 +1633,25 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>2</v>
-      </c>
       <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" customFormat="1" ht="54" spans="1:9">
@@ -3056,24 +1659,24 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>84</v>
+        <v>9</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>107</v>
+        <v>10</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>108</v>
+        <v>13</v>
       </c>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
       <c r="I2" s="7" t="s">
-        <v>109</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" ht="54" spans="1:9">
@@ -3081,28 +1684,28 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>87</v>
+        <v>15</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>110</v>
+        <v>16</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>111</v>
+        <v>17</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>112</v>
+        <v>18</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>114</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" ht="81" spans="1:9">
@@ -3110,22 +1713,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>115</v>
+        <v>21</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>116</v>
+        <v>22</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>117</v>
+        <v>23</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>118</v>
+        <v>24</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>119</v>
+        <v>25</v>
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
@@ -3135,24 +1738,24 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>120</v>
+        <v>26</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>121</v>
+        <v>27</v>
       </c>
       <c r="D5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>23</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7" t="s">
-        <v>122</v>
+        <v>29</v>
       </c>
       <c r="H5" s="7"/>
       <c r="I5" s="7" t="s">
-        <v>123</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" ht="81" spans="1:9">
@@ -3160,25 +1763,25 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>124</v>
+        <v>31</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>125</v>
+        <v>32</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>81</v>
+        <v>33</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>117</v>
+        <v>23</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>126</v>
+        <v>34</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>127</v>
+        <v>35</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>128</v>
+        <v>36</v>
       </c>
       <c r="I6" s="7"/>
     </row>
@@ -3187,20 +1790,20 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>120</v>
+        <v>26</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>121</v>
+        <v>27</v>
       </c>
       <c r="D7" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>23</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7" t="s">
-        <v>129</v>
+        <v>37</v>
       </c>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
@@ -3210,20 +1813,20 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>130</v>
+        <v>38</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>131</v>
+        <v>39</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>132</v>
+        <v>40</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>117</v>
+        <v>23</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7" t="s">
-        <v>133</v>
+        <v>41</v>
       </c>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
@@ -3233,20 +1836,20 @@
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>120</v>
+        <v>26</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>121</v>
+        <v>27</v>
       </c>
       <c r="D9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="7" t="s">
         <v>23</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7" t="s">
-        <v>134</v>
+        <v>42</v>
       </c>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
@@ -3267,12 +1870,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:I59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="D37" sqref="D37"/>
@@ -3298,25 +1901,25 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="27" spans="1:7">
@@ -3324,22 +1927,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>135</v>
+        <v>43</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>136</v>
+        <v>44</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>137</v>
+        <v>45</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>138</v>
+        <v>46</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>139</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="27" spans="1:7">
@@ -3347,22 +1950,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>140</v>
+        <v>48</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>136</v>
+        <v>44</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>137</v>
+        <v>45</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>141</v>
+        <v>49</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>142</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="27" spans="1:7">
@@ -3370,22 +1973,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>143</v>
+        <v>51</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>136</v>
+        <v>44</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>137</v>
+        <v>45</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>144</v>
+        <v>52</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>145</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="27" spans="1:7">
@@ -3393,22 +1996,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>146</v>
+        <v>54</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>147</v>
+        <v>55</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>137</v>
+        <v>45</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>148</v>
+        <v>56</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>149</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="27" spans="1:7">
@@ -3416,22 +2019,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>150</v>
+        <v>58</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>147</v>
+        <v>55</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>137</v>
+        <v>45</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>151</v>
+        <v>59</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>152</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="27" spans="1:7">
@@ -3439,22 +2042,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>153</v>
+        <v>61</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>147</v>
+        <v>55</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>137</v>
+        <v>45</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>154</v>
+        <v>62</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>155</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="27" spans="1:7">
@@ -3462,22 +2065,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>156</v>
+        <v>64</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>157</v>
+        <v>65</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>137</v>
+        <v>45</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>138</v>
+        <v>46</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>139</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="27" spans="1:7">
@@ -3485,22 +2088,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>158</v>
+        <v>66</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>157</v>
+        <v>65</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>137</v>
+        <v>45</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>141</v>
+        <v>49</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>142</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="27" spans="1:7">
@@ -3508,22 +2111,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>159</v>
+        <v>67</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>157</v>
+        <v>65</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>137</v>
+        <v>45</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>144</v>
+        <v>52</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>145</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="27" spans="1:7">
@@ -3531,22 +2134,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>160</v>
+        <v>68</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>161</v>
+        <v>69</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>137</v>
+        <v>45</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>148</v>
+        <v>56</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>149</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" ht="27" spans="1:7">
@@ -3554,22 +2157,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>162</v>
+        <v>70</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>161</v>
+        <v>69</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>137</v>
+        <v>45</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>151</v>
+        <v>59</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>152</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" ht="27" spans="1:9">
@@ -3577,23 +2180,23 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>84</v>
+        <v>9</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>107</v>
+        <v>10</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>108</v>
+        <v>13</v>
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="6" t="s">
-        <v>109</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" ht="81" spans="1:9">
@@ -3601,28 +2204,28 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>87</v>
+        <v>15</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>110</v>
+        <v>16</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>111</v>
+        <v>17</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>112</v>
+        <v>18</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>114</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" ht="27" spans="1:7">
@@ -3630,20 +2233,20 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>163</v>
+        <v>71</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>164</v>
+        <v>72</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>165</v>
+        <v>73</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="2" t="s">
-        <v>166</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" ht="27" spans="1:7">
@@ -3651,20 +2254,20 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>167</v>
+        <v>75</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>164</v>
+        <v>72</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>137</v>
+        <v>45</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="2" t="s">
-        <v>168</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" ht="27" spans="1:7">
@@ -3672,22 +2275,22 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>169</v>
+        <v>77</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>170</v>
+        <v>78</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>165</v>
+        <v>73</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>171</v>
+        <v>79</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>172</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" ht="27" spans="1:7">
@@ -3695,22 +2298,22 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>173</v>
+        <v>81</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>170</v>
+        <v>78</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>165</v>
+        <v>73</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>174</v>
+        <v>82</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>175</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" ht="27" spans="1:7">
@@ -3718,22 +2321,22 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>176</v>
+        <v>84</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>170</v>
+        <v>78</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>165</v>
+        <v>73</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>177</v>
+        <v>85</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>178</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" ht="27" spans="1:7">
@@ -3741,22 +2344,22 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>179</v>
+        <v>87</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>180</v>
+        <v>88</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>165</v>
+        <v>73</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>181</v>
+        <v>89</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>172</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" ht="27" spans="1:7">
@@ -3764,20 +2367,20 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>182</v>
+        <v>90</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>180</v>
+        <v>88</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>137</v>
+        <v>45</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="2" t="s">
-        <v>168</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1" ht="40.5" spans="1:7">
@@ -3785,20 +2388,20 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>183</v>
+        <v>91</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>184</v>
+        <v>92</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>165</v>
+        <v>73</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="2" t="s">
-        <v>185</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" ht="27" spans="1:7">
@@ -3806,22 +2409,22 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>186</v>
+        <v>94</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>187</v>
+        <v>95</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>165</v>
+        <v>73</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>181</v>
+        <v>89</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>188</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" ht="27" spans="1:7">
@@ -3829,20 +2432,20 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>189</v>
+        <v>97</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>190</v>
+        <v>98</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>165</v>
+        <v>73</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="2" t="s">
-        <v>191</v>
+        <v>99</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" ht="27" spans="1:7">
@@ -3850,20 +2453,20 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>192</v>
+        <v>100</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>193</v>
+        <v>101</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>165</v>
+        <v>73</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="2" t="s">
-        <v>194</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26" s="1" customFormat="1" ht="27" spans="1:7">
@@ -3871,22 +2474,22 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>195</v>
+        <v>103</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>196</v>
+        <v>104</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>165</v>
+        <v>73</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>197</v>
+        <v>105</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>198</v>
+        <v>106</v>
       </c>
     </row>
     <row r="27" s="1" customFormat="1" ht="27" spans="1:7">
@@ -3894,22 +2497,22 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>199</v>
+        <v>107</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>196</v>
+        <v>104</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>165</v>
+        <v>73</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>200</v>
+        <v>108</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>201</v>
+        <v>109</v>
       </c>
     </row>
     <row r="28" s="1" customFormat="1" ht="27" spans="1:7">
@@ -3917,22 +2520,22 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>202</v>
+        <v>110</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>203</v>
+        <v>111</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>204</v>
+        <v>112</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>165</v>
+        <v>73</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>205</v>
+        <v>113</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>206</v>
+        <v>114</v>
       </c>
     </row>
     <row r="29" s="1" customFormat="1" ht="27" spans="1:7">
@@ -3940,22 +2543,22 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>207</v>
+        <v>115</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>203</v>
+        <v>111</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>204</v>
+        <v>112</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>165</v>
+        <v>73</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>208</v>
+        <v>116</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>209</v>
+        <v>117</v>
       </c>
     </row>
     <row r="30" s="1" customFormat="1" ht="27" spans="1:7">
@@ -3963,22 +2566,22 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>210</v>
+        <v>118</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>211</v>
+        <v>119</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>165</v>
+        <v>73</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>205</v>
+        <v>113</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>206</v>
+        <v>114</v>
       </c>
     </row>
     <row r="31" s="1" customFormat="1" ht="27" spans="1:7">
@@ -3986,22 +2589,22 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>212</v>
+        <v>120</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>211</v>
+        <v>119</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>165</v>
+        <v>73</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>213</v>
+        <v>121</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>214</v>
+        <v>122</v>
       </c>
     </row>
     <row r="32" s="1" customFormat="1" ht="27" spans="1:7">
@@ -4009,22 +2612,22 @@
         <v>33</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>215</v>
+        <v>123</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>216</v>
+        <v>124</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>165</v>
+        <v>73</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>217</v>
+        <v>125</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>206</v>
+        <v>114</v>
       </c>
     </row>
     <row r="33" s="1" customFormat="1" ht="27" spans="1:7">
@@ -4032,22 +2635,22 @@
         <v>34</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>218</v>
+        <v>126</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>216</v>
+        <v>124</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>165</v>
+        <v>73</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>219</v>
+        <v>127</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>220</v>
+        <v>128</v>
       </c>
     </row>
     <row r="34" s="1" customFormat="1" ht="40.5" spans="1:7">
@@ -4055,22 +2658,22 @@
         <v>36</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>221</v>
+        <v>129</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>222</v>
+        <v>130</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>165</v>
+        <v>73</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>223</v>
+        <v>131</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>206</v>
+        <v>114</v>
       </c>
     </row>
     <row r="35" s="1" customFormat="1" ht="27" spans="1:7">
@@ -4078,22 +2681,22 @@
         <v>37</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>224</v>
+        <v>132</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>225</v>
+        <v>133</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>165</v>
+        <v>73</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>181</v>
+        <v>89</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>226</v>
+        <v>134</v>
       </c>
     </row>
     <row r="36" s="1" customFormat="1" ht="27" spans="1:7">
@@ -4101,22 +2704,22 @@
         <v>38</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>227</v>
+        <v>135</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>225</v>
+        <v>133</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>165</v>
+        <v>73</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>228</v>
+        <v>136</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>178</v>
+        <v>86</v>
       </c>
     </row>
     <row r="37" s="1" customFormat="1" ht="27" spans="1:7">
@@ -4124,20 +2727,20 @@
         <v>39</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>229</v>
+        <v>137</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>230</v>
+        <v>138</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>165</v>
+        <v>73</v>
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="2" t="s">
-        <v>231</v>
+        <v>139</v>
       </c>
     </row>
     <row r="38" s="1" customFormat="1" ht="27" spans="1:7">
@@ -4145,20 +2748,20 @@
         <v>40</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>232</v>
+        <v>140</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>233</v>
+        <v>141</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>165</v>
+        <v>73</v>
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="2" t="s">
-        <v>234</v>
+        <v>142</v>
       </c>
     </row>
     <row r="39" s="1" customFormat="1" ht="27" spans="1:7">
@@ -4166,22 +2769,22 @@
         <v>41</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>235</v>
+        <v>143</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>236</v>
+        <v>144</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>165</v>
+        <v>73</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>237</v>
+        <v>145</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>238</v>
+        <v>146</v>
       </c>
     </row>
     <row r="40" s="1" customFormat="1" ht="27" spans="1:7">
@@ -4189,22 +2792,22 @@
         <v>42</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>239</v>
+        <v>147</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>236</v>
+        <v>144</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>165</v>
+        <v>73</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>240</v>
+        <v>148</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>241</v>
+        <v>149</v>
       </c>
     </row>
     <row r="41" s="1" customFormat="1" ht="27" spans="1:7">
@@ -4212,22 +2815,22 @@
         <v>43</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>242</v>
+        <v>150</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>243</v>
+        <v>151</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>244</v>
+        <v>152</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>245</v>
+        <v>153</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>246</v>
+        <v>154</v>
       </c>
     </row>
     <row r="42" s="1" customFormat="1" ht="40.5" spans="1:7">
@@ -4235,20 +2838,20 @@
         <v>44</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>247</v>
+        <v>155</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>248</v>
+        <v>156</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>165</v>
+        <v>73</v>
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="2" t="s">
-        <v>249</v>
+        <v>157</v>
       </c>
     </row>
     <row r="43" s="1" customFormat="1" ht="27" spans="1:7">
@@ -4256,20 +2859,20 @@
         <v>45</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>250</v>
+        <v>158</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>251</v>
+        <v>159</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>165</v>
+        <v>73</v>
       </c>
       <c r="F43" s="1"/>
       <c r="G43" s="2" t="s">
-        <v>252</v>
+        <v>160</v>
       </c>
     </row>
     <row r="44" s="1" customFormat="1" ht="27" spans="1:7">
@@ -4277,20 +2880,20 @@
         <v>46</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>253</v>
+        <v>161</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>132</v>
+        <v>40</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>254</v>
+        <v>162</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>165</v>
+        <v>73</v>
       </c>
       <c r="F44" s="1"/>
       <c r="G44" s="2" t="s">
-        <v>206</v>
+        <v>114</v>
       </c>
     </row>
     <row r="45" s="1" customFormat="1" ht="27" spans="1:7">
@@ -4298,22 +2901,22 @@
         <v>47</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>255</v>
+        <v>163</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>256</v>
+        <v>164</v>
       </c>
       <c r="E45" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F45" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="F45" s="1" t="s">
-        <v>257</v>
-      </c>
       <c r="G45" s="2" t="s">
-        <v>258</v>
+        <v>166</v>
       </c>
     </row>
     <row r="46" s="1" customFormat="1" ht="27" spans="1:7">
@@ -4321,22 +2924,22 @@
         <v>48</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>259</v>
+        <v>167</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>256</v>
+        <v>164</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>165</v>
+        <v>73</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>260</v>
+        <v>168</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>261</v>
+        <v>169</v>
       </c>
     </row>
     <row r="47" s="1" customFormat="1" ht="40.5" spans="1:7">
@@ -4344,22 +2947,22 @@
         <v>49</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>262</v>
+        <v>170</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>263</v>
+        <v>171</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>244</v>
+        <v>152</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>245</v>
+        <v>153</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>246</v>
+        <v>154</v>
       </c>
     </row>
     <row r="48" s="1" customFormat="1" ht="27" spans="1:7">
@@ -4367,20 +2970,20 @@
         <v>50</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>264</v>
+        <v>172</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>121</v>
+        <v>27</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>165</v>
+        <v>73</v>
       </c>
       <c r="F48" s="1"/>
       <c r="G48" s="2" t="s">
-        <v>265</v>
+        <v>173</v>
       </c>
     </row>
     <row r="49" s="1" customFormat="1" ht="27" spans="1:7">
@@ -4388,20 +2991,20 @@
         <v>51</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>266</v>
+        <v>174</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>121</v>
+        <v>27</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>137</v>
+        <v>45</v>
       </c>
       <c r="F49" s="1"/>
       <c r="G49" s="2" t="s">
-        <v>168</v>
+        <v>76</v>
       </c>
     </row>
     <row r="50" s="1" customFormat="1" ht="27" spans="1:7">
@@ -4409,20 +3012,20 @@
         <v>52</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>267</v>
+        <v>175</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>125</v>
+        <v>32</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>165</v>
+        <v>73</v>
       </c>
       <c r="F50" s="1"/>
       <c r="G50" s="2" t="s">
-        <v>268</v>
+        <v>176</v>
       </c>
     </row>
     <row r="51" s="1" customFormat="1" ht="27" spans="1:7">
@@ -4430,22 +3033,22 @@
         <v>53</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>269</v>
+        <v>177</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>81</v>
+        <v>33</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>125</v>
+        <v>32</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>165</v>
+        <v>73</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>270</v>
+        <v>178</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>206</v>
+        <v>114</v>
       </c>
     </row>
     <row r="52" s="1" customFormat="1" ht="27" spans="1:7">
@@ -4453,22 +3056,22 @@
         <v>54</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>271</v>
+        <v>179</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>272</v>
+        <v>180</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>165</v>
+        <v>73</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>273</v>
+        <v>181</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>206</v>
+        <v>114</v>
       </c>
     </row>
     <row r="53" s="1" customFormat="1" ht="27" spans="1:7">
@@ -4476,22 +3079,22 @@
         <v>55</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>274</v>
+        <v>182</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>272</v>
+        <v>180</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>165</v>
+        <v>73</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>275</v>
+        <v>183</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>276</v>
+        <v>184</v>
       </c>
     </row>
     <row r="54" s="1" customFormat="1" ht="27" spans="1:7">
@@ -4499,22 +3102,22 @@
         <v>56</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>277</v>
+        <v>185</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>116</v>
+        <v>22</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>165</v>
+        <v>73</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>278</v>
+        <v>186</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>279</v>
+        <v>187</v>
       </c>
     </row>
     <row r="55" s="1" customFormat="1" ht="27" spans="1:7">
@@ -4522,22 +3125,22 @@
         <v>57</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>280</v>
+        <v>188</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>116</v>
+        <v>22</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>165</v>
+        <v>73</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>281</v>
+        <v>189</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>282</v>
+        <v>190</v>
       </c>
     </row>
     <row r="56" s="1" customFormat="1" ht="27" spans="1:7">
@@ -4545,20 +3148,20 @@
         <v>58</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>283</v>
+        <v>191</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>132</v>
+        <v>40</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>284</v>
+        <v>192</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>165</v>
+        <v>73</v>
       </c>
       <c r="F56" s="1"/>
       <c r="G56" s="2" t="s">
-        <v>206</v>
+        <v>114</v>
       </c>
     </row>
     <row r="57" s="1" customFormat="1" ht="40.5" spans="1:7">
@@ -4566,20 +3169,20 @@
         <v>59</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>285</v>
+        <v>193</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>132</v>
+        <v>40</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>286</v>
+        <v>194</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>165</v>
+        <v>73</v>
       </c>
       <c r="F57" s="1"/>
       <c r="G57" s="2" t="s">
-        <v>287</v>
+        <v>195</v>
       </c>
     </row>
     <row r="58" s="1" customFormat="1" ht="27" spans="1:7">
@@ -4587,20 +3190,20 @@
         <v>60</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>288</v>
+        <v>196</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>132</v>
+        <v>40</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>289</v>
+        <v>197</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>165</v>
+        <v>73</v>
       </c>
       <c r="F58" s="1"/>
       <c r="G58" s="2" t="s">
-        <v>206</v>
+        <v>114</v>
       </c>
     </row>
     <row r="59" s="1" customFormat="1" ht="27" spans="1:7">
@@ -4608,20 +3211,20 @@
         <v>61</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>290</v>
+        <v>198</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>132</v>
+        <v>40</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>291</v>
+        <v>199</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>165</v>
+        <v>73</v>
       </c>
       <c r="F59" s="1"/>
       <c r="G59" s="2" t="s">
-        <v>292</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/datas/data.xlsx
+++ b/datas/data.xlsx
@@ -4,11 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12375" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="登录流程" sheetId="12" r:id="rId1"/>
     <sheet name="单接口验证" sheetId="13" r:id="rId2"/>
+    <sheet name="获取商场课包" sheetId="14" r:id="rId3"/>
+    <sheet name="学情状态更新" sheetId="15" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="201">
   <si>
     <t>用例编号</t>
   </si>
@@ -313,6 +315,300 @@
     <t>分页获取我的小课包列表【学生端】_无权限</t>
   </si>
   <si>
+    <t>获取学情信息_正常流程</t>
+  </si>
+  <si>
+    <t>https://minicourse.test.venhalo.com/api/v1/situation/student</t>
+  </si>
+  <si>
+    <t>{"studentId": "student123"}</t>
+  </si>
+  <si>
+    <t>{"studentId": "student123", "learningStatus": "learning"}</t>
+  </si>
+  <si>
+    <t>获取学情信息_缺少学生ID</t>
+  </si>
+  <si>
+    <t>{}</t>
+  </si>
+  <si>
+    <t>{"code": 400, "msg": "缺少学生ID"}</t>
+  </si>
+  <si>
+    <t>更新学生学习状态【正在学习】_正常流程</t>
+  </si>
+  <si>
+    <t>PATCH</t>
+  </si>
+  <si>
+    <t>https://minicourse.test.venhalo.com/api/v1/situation/start</t>
+  </si>
+  <si>
+    <t>{"minicourseId": "course123"}</t>
+  </si>
+  <si>
+    <t>{"code": 200, "msg": "操作成功"}</t>
+  </si>
+  <si>
+    <t>更新学生学习状态【正在学习】_无效课程ID</t>
+  </si>
+  <si>
+    <t>{"minicourseId": "invalid_id"}</t>
+  </si>
+  <si>
+    <t>{"code": 404, "msg": "课程不存在"}</t>
+  </si>
+  <si>
+    <t>标记当天课程结束_正常流程</t>
+  </si>
+  <si>
+    <t>https://minicourse.test.venhalo.com/api/v1/situation/end</t>
+  </si>
+  <si>
+    <t>标记当天课程结束_未学习</t>
+  </si>
+  <si>
+    <t>{"minicourseId": "course456"}</t>
+  </si>
+  <si>
+    <t>{"code": 400, "msg": "课程未开始学习"}</t>
+  </si>
+  <si>
+    <t>学生推送操作信息_正常流程</t>
+  </si>
+  <si>
+    <t>https://minicourse.test.venhalo.com/api/v1/interaction/message</t>
+  </si>
+  <si>
+    <t>{"content": "学习了一节课", "type": "learning"}</t>
+  </si>
+  <si>
+    <t>学生推送操作信息_无效类型</t>
+  </si>
+  <si>
+    <t>{"content": "学习了一节课", "type": "invalid_type"}</t>
+  </si>
+  <si>
+    <t>{"code": 400, "msg": "无效的消息类型"}</t>
+  </si>
+  <si>
+    <t>家长学生互动鼓励信息_POST_正常流程</t>
+  </si>
+  <si>
+    <t>https://minicourse.test.venhalo.com/api/v1/interaction/encouragement/student123</t>
+  </si>
+  <si>
+    <t>{"content": "继续加油！"}</t>
+  </si>
+  <si>
+    <t>获取订单列表（分页）_正常流程</t>
+  </si>
+  <si>
+    <t>https://minicourse.test.venhalo.com/api/v1/order/list</t>
+  </si>
+  <si>
+    <t>{"orders": [], "total": 0, "page": 1, "pageSize": 10}</t>
+  </si>
+  <si>
+    <t>获取订单列表（分页）_分页参数错误</t>
+  </si>
+  <si>
+    <t>{"page": -1, "pageSize": 10}</t>
+  </si>
+  <si>
+    <t>获取订单详情_正常流程</t>
+  </si>
+  <si>
+    <t>https://minicourse.test.venhalo.com/api/v1/order/order123</t>
+  </si>
+  <si>
+    <t>{"orderId": "order123", "amount": 99.99, "status": "paid"}</t>
+  </si>
+  <si>
+    <t>获取订单详情_无效ID</t>
+  </si>
+  <si>
+    <t>https://minicourse.test.venhalo.com/api/v1/order/invalid_id</t>
+  </si>
+  <si>
+    <t>{"code": 404, "msg": "订单不存在"}</t>
+  </si>
+  <si>
+    <t>微信支付创建订单（预支付）_正常流程</t>
+  </si>
+  <si>
+    <t>https://minicourse.test.venhalo.com/api/v1/payment/wx/creation</t>
+  </si>
+  <si>
+    <t>{"minicourseId": "course123", "amount": 99.99, "subject": "课程购买"}</t>
+  </si>
+  <si>
+    <t>{"orderId": "order123", "prepayId": "prepay123"}</t>
+  </si>
+  <si>
+    <t>微信支付创建订单（预支付）_金额为0</t>
+  </si>
+  <si>
+    <t>{"minicourseId": "course123", "amount": 0, "subject": "课程购买"}</t>
+  </si>
+  <si>
+    <t>{"code": 400, "msg": "支付金额不能为0"}</t>
+  </si>
+  <si>
+    <t>微信支付回调_正常流程</t>
+  </si>
+  <si>
+    <t>https://minicourse.test.venhalo.com/api/v1/payment/wx/pay/callback</t>
+  </si>
+  <si>
+    <t>{"Content-Type": "application/xml"}</t>
+  </si>
+  <si>
+    <t>xml_data</t>
+  </si>
+  <si>
+    <t>&lt;xml&gt;&lt;return_code&gt;&lt;![CDATA[SUCCESS]]&gt;&lt;/return_code&gt;&lt;return_msg&gt;&lt;![CDATA[OK]]&gt;&lt;/return_msg&gt;&lt;/xml&gt;</t>
+  </si>
+  <si>
+    <t>获取微信JSAPI支付所需签名参数_正常流程</t>
+  </si>
+  <si>
+    <t>https://minicourse.test.venhalo.com/api/v1/payment/wx/paysign/order123</t>
+  </si>
+  <si>
+    <t>{"appId": "wx_appid", "timeStamp": "timestamp", "nonceStr": "noncestr", "package": "prepay_id=prepay123", "signType": "MD5", "paySign": "signature"}</t>
+  </si>
+  <si>
+    <t>微信查询订单信息_正常流程</t>
+  </si>
+  <si>
+    <t>https://minicourse.test.venhalo.com/api/v1/payment/wx/trade123</t>
+  </si>
+  <si>
+    <t>{"tradeNo": "trade123", "status": "paid", "amount": 99.99}</t>
+  </si>
+  <si>
+    <t>关闭微信支付订单_正常流程</t>
+  </si>
+  <si>
+    <t>https://minicourse.test.venhalo.com/api/v1/payment/wx/order123</t>
+  </si>
+  <si>
+    <t>申请微信退款_正常流程</t>
+  </si>
+  <si>
+    <t>https://minicourse.test.venhalo.com/api/v1/payment/wx/refund</t>
+  </si>
+  <si>
+    <t>{"orderId": "order123", "refundAmount": 99.99, "refundReason": "课程退款"}</t>
+  </si>
+  <si>
+    <t>{"refundId": "refund123", "refundStatus": "PROCESSING"}</t>
+  </si>
+  <si>
+    <t>申请微信退款_退款金额大于支付金额</t>
+  </si>
+  <si>
+    <t>{"orderId": "order123", "refundAmount": 200, "refundReason": "课程退款"}</t>
+  </si>
+  <si>
+    <t>{"code": 400, "msg": "退款金额不能大于支付金额"}</t>
+  </si>
+  <si>
+    <t>微信退款回调_正常流程</t>
+  </si>
+  <si>
+    <t>https://minicourse.test.venhalo.com/api/v1/payment/wx/refund/callback</t>
+  </si>
+  <si>
+    <t>获取当前用户信息（家长）_正常流程</t>
+  </si>
+  <si>
+    <t>{"userId": "user123", "phone": "13800138000", "nickName": "家长昵称", "avatarUrl": "avatar_url"}</t>
+  </si>
+  <si>
+    <t>获取当前用户信息（家长）_无权限</t>
+  </si>
+  <si>
+    <t>学生信息管理_GET_正常流程</t>
+  </si>
+  <si>
+    <t>{"studentId": "student123", "name": "学生姓名", "age": 8, "gender": "male"}</t>
+  </si>
+  <si>
+    <t>学生信息管理_PUT_正常流程</t>
+  </si>
+  <si>
+    <t>{"studentId": "student123", "name": "新学生姓名", "age": 9, "gender": "male"}</t>
+  </si>
+  <si>
+    <t>添加家庭成员（家长）_正常流程</t>
+  </si>
+  <si>
+    <t>https://minicourse.test.venhalo.com/api/v1/family/bind/par</t>
+  </si>
+  <si>
+    <t>{"phone": "13900139000", "relation": "father"}</t>
+  </si>
+  <si>
+    <t>添加家庭成员（家长）_无效手机号</t>
+  </si>
+  <si>
+    <t>{"phone": "1234567890", "relation": "father"}</t>
+  </si>
+  <si>
+    <t>{"code": 400, "msg": "手机号格式不正确"}</t>
+  </si>
+  <si>
+    <t>绑定学生_正常流程</t>
+  </si>
+  <si>
+    <t>{"studentName": "学生姓名", "age": 8, "gender": "male"}</t>
+  </si>
+  <si>
+    <t>{"code": 200, "msg": "操作成功", "studentId": "student123"}</t>
+  </si>
+  <si>
+    <t>绑定学生_缺少必填信息</t>
+  </si>
+  <si>
+    <t>{"studentName": "学生姓名"}</t>
+  </si>
+  <si>
+    <t>{"code": 400, "msg": "缺少必要信息"}</t>
+  </si>
+  <si>
+    <t>解绑家庭成员_正常流程</t>
+  </si>
+  <si>
+    <t>https://minicourse.test.venhalo.com/api/v1/family/par/parent123</t>
+  </si>
+  <si>
+    <t>解绑家庭成员_自己</t>
+  </si>
+  <si>
+    <t>https://minicourse.test.venhalo.com/api/v1/family/par/current_user_id</t>
+  </si>
+  <si>
+    <t>{"code": 400, "msg": "不能解绑自己"}</t>
+  </si>
+  <si>
+    <t>解绑学生_正常流程</t>
+  </si>
+  <si>
+    <t>https://minicourse.test.venhalo.com/api/v1/family/stu/student123</t>
+  </si>
+  <si>
+    <t>解绑学生_不存在</t>
+  </si>
+  <si>
+    <t>https://minicourse.test.venhalo.com/api/v1/family/stu/invalid_id</t>
+  </si>
+  <si>
+    <t>{"code": 404, "msg": "学生不存在"}</t>
+  </si>
+  <si>
     <t>获取推荐课包_正常流程</t>
   </si>
   <si>
@@ -328,7 +624,12 @@
     <t>https://minicourse.test.venhalo.com/api/v1/minicourse/mall</t>
   </si>
   <si>
-    <t>{"mallCourses": [], "total": 0, "page": 1, "pageSize": 10}</t>
+    <t>{
+ "title": "工程问题",
+ "grade": "-1",
+ "page": 1,
+ "pageSize": 10
+}</t>
   </si>
   <si>
     <t>获取课包详情_正常流程</t>
@@ -347,300 +648,6 @@
   </si>
   <si>
     <t>{"code": 404, "msg": "课包不存在"}</t>
-  </si>
-  <si>
-    <t>获取学情信息_正常流程</t>
-  </si>
-  <si>
-    <t>https://minicourse.test.venhalo.com/api/v1/situation/student</t>
-  </si>
-  <si>
-    <t>{"studentId": "student123"}</t>
-  </si>
-  <si>
-    <t>{"studentId": "student123", "learningStatus": "learning"}</t>
-  </si>
-  <si>
-    <t>获取学情信息_缺少学生ID</t>
-  </si>
-  <si>
-    <t>{}</t>
-  </si>
-  <si>
-    <t>{"code": 400, "msg": "缺少学生ID"}</t>
-  </si>
-  <si>
-    <t>更新学生学习状态【正在学习】_正常流程</t>
-  </si>
-  <si>
-    <t>PATCH</t>
-  </si>
-  <si>
-    <t>https://minicourse.test.venhalo.com/api/v1/situation/start</t>
-  </si>
-  <si>
-    <t>{"minicourseId": "course123"}</t>
-  </si>
-  <si>
-    <t>{"code": 200, "msg": "操作成功"}</t>
-  </si>
-  <si>
-    <t>更新学生学习状态【正在学习】_无效课程ID</t>
-  </si>
-  <si>
-    <t>{"minicourseId": "invalid_id"}</t>
-  </si>
-  <si>
-    <t>{"code": 404, "msg": "课程不存在"}</t>
-  </si>
-  <si>
-    <t>标记当天课程结束_正常流程</t>
-  </si>
-  <si>
-    <t>https://minicourse.test.venhalo.com/api/v1/situation/end</t>
-  </si>
-  <si>
-    <t>标记当天课程结束_未学习</t>
-  </si>
-  <si>
-    <t>{"minicourseId": "course456"}</t>
-  </si>
-  <si>
-    <t>{"code": 400, "msg": "课程未开始学习"}</t>
-  </si>
-  <si>
-    <t>学生推送操作信息_正常流程</t>
-  </si>
-  <si>
-    <t>https://minicourse.test.venhalo.com/api/v1/interaction/message</t>
-  </si>
-  <si>
-    <t>{"content": "学习了一节课", "type": "learning"}</t>
-  </si>
-  <si>
-    <t>学生推送操作信息_无效类型</t>
-  </si>
-  <si>
-    <t>{"content": "学习了一节课", "type": "invalid_type"}</t>
-  </si>
-  <si>
-    <t>{"code": 400, "msg": "无效的消息类型"}</t>
-  </si>
-  <si>
-    <t>家长学生互动鼓励信息_POST_正常流程</t>
-  </si>
-  <si>
-    <t>https://minicourse.test.venhalo.com/api/v1/interaction/encouragement/student123</t>
-  </si>
-  <si>
-    <t>{"content": "继续加油！"}</t>
-  </si>
-  <si>
-    <t>获取订单列表（分页）_正常流程</t>
-  </si>
-  <si>
-    <t>https://minicourse.test.venhalo.com/api/v1/order/list</t>
-  </si>
-  <si>
-    <t>{"orders": [], "total": 0, "page": 1, "pageSize": 10}</t>
-  </si>
-  <si>
-    <t>获取订单列表（分页）_分页参数错误</t>
-  </si>
-  <si>
-    <t>{"page": -1, "pageSize": 10}</t>
-  </si>
-  <si>
-    <t>获取订单详情_正常流程</t>
-  </si>
-  <si>
-    <t>https://minicourse.test.venhalo.com/api/v1/order/order123</t>
-  </si>
-  <si>
-    <t>{"orderId": "order123", "amount": 99.99, "status": "paid"}</t>
-  </si>
-  <si>
-    <t>获取订单详情_无效ID</t>
-  </si>
-  <si>
-    <t>https://minicourse.test.venhalo.com/api/v1/order/invalid_id</t>
-  </si>
-  <si>
-    <t>{"code": 404, "msg": "订单不存在"}</t>
-  </si>
-  <si>
-    <t>微信支付创建订单（预支付）_正常流程</t>
-  </si>
-  <si>
-    <t>https://minicourse.test.venhalo.com/api/v1/payment/wx/creation</t>
-  </si>
-  <si>
-    <t>{"minicourseId": "course123", "amount": 99.99, "subject": "课程购买"}</t>
-  </si>
-  <si>
-    <t>{"orderId": "order123", "prepayId": "prepay123"}</t>
-  </si>
-  <si>
-    <t>微信支付创建订单（预支付）_金额为0</t>
-  </si>
-  <si>
-    <t>{"minicourseId": "course123", "amount": 0, "subject": "课程购买"}</t>
-  </si>
-  <si>
-    <t>{"code": 400, "msg": "支付金额不能为0"}</t>
-  </si>
-  <si>
-    <t>微信支付回调_正常流程</t>
-  </si>
-  <si>
-    <t>https://minicourse.test.venhalo.com/api/v1/payment/wx/pay/callback</t>
-  </si>
-  <si>
-    <t>{"Content-Type": "application/xml"}</t>
-  </si>
-  <si>
-    <t>xml_data</t>
-  </si>
-  <si>
-    <t>&lt;xml&gt;&lt;return_code&gt;&lt;![CDATA[SUCCESS]]&gt;&lt;/return_code&gt;&lt;return_msg&gt;&lt;![CDATA[OK]]&gt;&lt;/return_msg&gt;&lt;/xml&gt;</t>
-  </si>
-  <si>
-    <t>获取微信JSAPI支付所需签名参数_正常流程</t>
-  </si>
-  <si>
-    <t>https://minicourse.test.venhalo.com/api/v1/payment/wx/paysign/order123</t>
-  </si>
-  <si>
-    <t>{"appId": "wx_appid", "timeStamp": "timestamp", "nonceStr": "noncestr", "package": "prepay_id=prepay123", "signType": "MD5", "paySign": "signature"}</t>
-  </si>
-  <si>
-    <t>微信查询订单信息_正常流程</t>
-  </si>
-  <si>
-    <t>https://minicourse.test.venhalo.com/api/v1/payment/wx/trade123</t>
-  </si>
-  <si>
-    <t>{"tradeNo": "trade123", "status": "paid", "amount": 99.99}</t>
-  </si>
-  <si>
-    <t>关闭微信支付订单_正常流程</t>
-  </si>
-  <si>
-    <t>https://minicourse.test.venhalo.com/api/v1/payment/wx/order123</t>
-  </si>
-  <si>
-    <t>申请微信退款_正常流程</t>
-  </si>
-  <si>
-    <t>https://minicourse.test.venhalo.com/api/v1/payment/wx/refund</t>
-  </si>
-  <si>
-    <t>{"orderId": "order123", "refundAmount": 99.99, "refundReason": "课程退款"}</t>
-  </si>
-  <si>
-    <t>{"refundId": "refund123", "refundStatus": "PROCESSING"}</t>
-  </si>
-  <si>
-    <t>申请微信退款_退款金额大于支付金额</t>
-  </si>
-  <si>
-    <t>{"orderId": "order123", "refundAmount": 200, "refundReason": "课程退款"}</t>
-  </si>
-  <si>
-    <t>{"code": 400, "msg": "退款金额不能大于支付金额"}</t>
-  </si>
-  <si>
-    <t>微信退款回调_正常流程</t>
-  </si>
-  <si>
-    <t>https://minicourse.test.venhalo.com/api/v1/payment/wx/refund/callback</t>
-  </si>
-  <si>
-    <t>获取当前用户信息（家长）_正常流程</t>
-  </si>
-  <si>
-    <t>{"userId": "user123", "phone": "13800138000", "nickName": "家长昵称", "avatarUrl": "avatar_url"}</t>
-  </si>
-  <si>
-    <t>获取当前用户信息（家长）_无权限</t>
-  </si>
-  <si>
-    <t>学生信息管理_GET_正常流程</t>
-  </si>
-  <si>
-    <t>{"studentId": "student123", "name": "学生姓名", "age": 8, "gender": "male"}</t>
-  </si>
-  <si>
-    <t>学生信息管理_PUT_正常流程</t>
-  </si>
-  <si>
-    <t>{"studentId": "student123", "name": "新学生姓名", "age": 9, "gender": "male"}</t>
-  </si>
-  <si>
-    <t>添加家庭成员（家长）_正常流程</t>
-  </si>
-  <si>
-    <t>https://minicourse.test.venhalo.com/api/v1/family/bind/par</t>
-  </si>
-  <si>
-    <t>{"phone": "13900139000", "relation": "father"}</t>
-  </si>
-  <si>
-    <t>添加家庭成员（家长）_无效手机号</t>
-  </si>
-  <si>
-    <t>{"phone": "1234567890", "relation": "father"}</t>
-  </si>
-  <si>
-    <t>{"code": 400, "msg": "手机号格式不正确"}</t>
-  </si>
-  <si>
-    <t>绑定学生_正常流程</t>
-  </si>
-  <si>
-    <t>{"studentName": "学生姓名", "age": 8, "gender": "male"}</t>
-  </si>
-  <si>
-    <t>{"code": 200, "msg": "操作成功", "studentId": "student123"}</t>
-  </si>
-  <si>
-    <t>绑定学生_缺少必填信息</t>
-  </si>
-  <si>
-    <t>{"studentName": "学生姓名"}</t>
-  </si>
-  <si>
-    <t>{"code": 400, "msg": "缺少必要信息"}</t>
-  </si>
-  <si>
-    <t>解绑家庭成员_正常流程</t>
-  </si>
-  <si>
-    <t>https://minicourse.test.venhalo.com/api/v1/family/par/parent123</t>
-  </si>
-  <si>
-    <t>解绑家庭成员_自己</t>
-  </si>
-  <si>
-    <t>https://minicourse.test.venhalo.com/api/v1/family/par/current_user_id</t>
-  </si>
-  <si>
-    <t>{"code": 400, "msg": "不能解绑自己"}</t>
-  </si>
-  <si>
-    <t>解绑学生_正常流程</t>
-  </si>
-  <si>
-    <t>https://minicourse.test.venhalo.com/api/v1/family/stu/student123</t>
-  </si>
-  <si>
-    <t>解绑学生_不存在</t>
-  </si>
-  <si>
-    <t>https://minicourse.test.venhalo.com/api/v1/family/stu/invalid_id</t>
-  </si>
-  <si>
-    <t>{"code": 404, "msg": "学生不存在"}</t>
   </si>
 </sst>
 </file>
@@ -1270,12 +1277,24 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1283,20 +1302,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1611,8 +1621,8 @@
   <sheetPr/>
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="$A4:$XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1626,233 +1636,233 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:9">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" customFormat="1" ht="54" spans="1:9">
-      <c r="A2" s="7">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="7" t="s">
+      <c r="D2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7" t="s">
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" ht="54" spans="1:9">
-      <c r="A3" s="8">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="7" t="s">
+      <c r="D3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" ht="81" spans="1:9">
-      <c r="A4" s="8">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="7" t="s">
+      <c r="D4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
     </row>
     <row r="5" ht="67.5" spans="1:9">
-      <c r="A5" s="8">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7" t="s">
+      <c r="F5" s="3"/>
+      <c r="G5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7" t="s">
+      <c r="H5" s="3"/>
+      <c r="I5" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="6" ht="81" spans="1:9">
-      <c r="A6" s="8">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="I6" s="7"/>
+      <c r="I6" s="3"/>
     </row>
     <row r="7" ht="67.5" spans="1:9">
-      <c r="A7" s="8">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7" t="s">
+      <c r="F7" s="3"/>
+      <c r="G7" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
     </row>
     <row r="8" ht="67.5" spans="1:9">
-      <c r="A8" s="8">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7" t="s">
+      <c r="F8" s="3"/>
+      <c r="G8" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
     </row>
     <row r="9" ht="67.5" spans="1:9">
-      <c r="A9" s="8">
+      <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7" t="s">
+      <c r="F9" s="3"/>
+      <c r="G9" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1873,12 +1883,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I59"/>
+  <dimension ref="A1:I55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D37" sqref="D37"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17" defaultRowHeight="13.5"/>
@@ -1886,39 +1896,39 @@
     <col min="1" max="1" width="10" style="1" customWidth="1"/>
     <col min="2" max="2" width="43.25" style="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="1" customWidth="1"/>
-    <col min="4" max="4" width="33.75" style="2" customWidth="1"/>
-    <col min="5" max="5" width="56.25" style="2" customWidth="1"/>
+    <col min="4" max="4" width="33.75" style="6" customWidth="1"/>
+    <col min="5" max="5" width="56.25" style="6" customWidth="1"/>
     <col min="6" max="6" width="36.375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="66.5" style="2" customWidth="1"/>
+    <col min="7" max="7" width="66.5" style="6" customWidth="1"/>
     <col min="8" max="16373" width="17" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:9">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="7" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1932,16 +1942,16 @@
       <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="6" t="s">
         <v>45</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="6" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1955,16 +1965,16 @@
       <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="6" t="s">
         <v>45</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="6" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1978,16 +1988,16 @@
       <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="6" t="s">
         <v>45</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="6" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2001,16 +2011,16 @@
       <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="6" t="s">
         <v>45</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="6" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2024,16 +2034,16 @@
       <c r="C6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="6" t="s">
         <v>45</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="6" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2047,16 +2057,16 @@
       <c r="C7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="6" t="s">
         <v>45</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="6" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2070,16 +2080,16 @@
       <c r="C8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="6" t="s">
         <v>45</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="6" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2093,16 +2103,16 @@
       <c r="C9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="6" t="s">
         <v>45</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="6" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2116,16 +2126,16 @@
       <c r="C10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="6" t="s">
         <v>45</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="6" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2139,16 +2149,16 @@
       <c r="C11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="6" t="s">
         <v>45</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="6" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2162,16 +2172,16 @@
       <c r="C12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="6" t="s">
         <v>45</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="6" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2179,23 +2189,23 @@
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="6" t="s">
+      <c r="C13" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6" t="s">
+      <c r="H13" s="9"/>
+      <c r="I13" s="9" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2203,28 +2213,28 @@
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="6" t="s">
+      <c r="C14" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="G14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H14" s="6" t="s">
+      <c r="H14" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I14" s="6" t="s">
+      <c r="I14" s="9" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2238,14 +2248,14 @@
       <c r="C15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="6" t="s">
         <v>73</v>
       </c>
       <c r="F15" s="1"/>
-      <c r="G15" s="2" t="s">
+      <c r="G15" s="6" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2259,14 +2269,14 @@
       <c r="C16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="6" t="s">
         <v>45</v>
       </c>
       <c r="F16" s="1"/>
-      <c r="G16" s="2" t="s">
+      <c r="G16" s="6" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2280,16 +2290,16 @@
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="6" t="s">
         <v>73</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="G17" s="6" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2303,16 +2313,16 @@
       <c r="C18" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="6" t="s">
         <v>73</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="G18" s="6" t="s">
         <v>83</v>
       </c>
     </row>
@@ -2326,16 +2336,16 @@
       <c r="C19" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="6" t="s">
         <v>73</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="G19" s="6" t="s">
         <v>86</v>
       </c>
     </row>
@@ -2349,16 +2359,16 @@
       <c r="C20" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="6" t="s">
         <v>73</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="G20" s="6" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2372,221 +2382,227 @@
       <c r="C21" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="6" t="s">
         <v>45</v>
       </c>
       <c r="F21" s="1"/>
-      <c r="G21" s="2" t="s">
+      <c r="G21" s="6" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="22" s="1" customFormat="1" ht="40.5" spans="1:7">
+    <row r="22" s="1" customFormat="1" ht="27" spans="1:7">
       <c r="A22" s="1">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>91</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F22" s="1"/>
-      <c r="G22" s="2" t="s">
+      <c r="E22" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>93</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" ht="27" spans="1:7">
       <c r="A23" s="1">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E23" s="2" t="s">
+      <c r="D23" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E23" s="6" t="s">
         <v>73</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="G23" s="2" t="s">
         <v>96</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" ht="27" spans="1:7">
       <c r="A24" s="1">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F24" s="1"/>
-      <c r="G24" s="2" t="s">
         <v>99</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" ht="27" spans="1:7">
       <c r="A25" s="1">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D25" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F25" s="1"/>
-      <c r="G25" s="2" t="s">
-        <v>102</v>
+      <c r="E25" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="26" s="1" customFormat="1" ht="27" spans="1:7">
       <c r="A26" s="1">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E26" s="2" t="s">
+      <c r="D26" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="E26" s="6" t="s">
         <v>73</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="27" s="1" customFormat="1" ht="27" spans="1:7">
       <c r="A27" s="1">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E27" s="2" t="s">
+      <c r="E27" s="6" t="s">
         <v>73</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G27" s="2" t="s">
         <v>109</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="28" s="1" customFormat="1" ht="27" spans="1:7">
       <c r="A28" s="1">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D28" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E28" s="6" t="s">
         <v>73</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="G28" s="2" t="s">
-        <v>114</v>
+      <c r="G28" s="6" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="29" s="1" customFormat="1" ht="27" spans="1:7">
       <c r="A29" s="1">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F29" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F29" s="1" t="s">
+      <c r="G29" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="G29" s="2" t="s">
+    </row>
+    <row r="30" s="1" customFormat="1" ht="40.5" spans="1:7">
+      <c r="A30" s="1">
+        <v>36</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="30" s="1" customFormat="1" ht="27" spans="1:7">
-      <c r="A30" s="1">
-        <v>29</v>
-      </c>
-      <c r="B30" s="1" t="s">
+      <c r="C30" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D30" s="2" t="s">
+      <c r="E30" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="E30" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>114</v>
+      <c r="G30" s="6" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="31" s="1" customFormat="1" ht="27" spans="1:7">
       <c r="A31" s="1">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>120</v>
@@ -2594,22 +2610,22 @@
       <c r="C31" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D31" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E31" s="2" t="s">
+      <c r="D31" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E31" s="6" t="s">
         <v>73</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="G31" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G31" s="6" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="32" s="1" customFormat="1" ht="27" spans="1:7">
       <c r="A32" s="1">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>123</v>
@@ -2617,91 +2633,87 @@
       <c r="C32" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D32" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F32" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="E32" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>114</v>
+      <c r="G32" s="6" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="33" s="1" customFormat="1" ht="27" spans="1:7">
       <c r="A33" s="1">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D33" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F33" s="1" t="s">
+      <c r="E33" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F33" s="1"/>
+      <c r="G33" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="G33" s="2" t="s">
+    </row>
+    <row r="34" s="1" customFormat="1" ht="27" spans="1:7">
+      <c r="A34" s="1">
+        <v>40</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="34" s="1" customFormat="1" ht="40.5" spans="1:7">
-      <c r="A34" s="1">
-        <v>36</v>
-      </c>
-      <c r="B34" s="1" t="s">
+      <c r="C34" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D34" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D34" s="2" t="s">
+      <c r="E34" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F34" s="1"/>
+      <c r="G34" s="6" t="s">
         <v>130</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="35" s="1" customFormat="1" ht="27" spans="1:7">
       <c r="A35" s="1">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D35" s="2" t="s">
+      <c r="E35" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F35" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="E35" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="G35" s="2" t="s">
+      <c r="G35" s="6" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="36" s="1" customFormat="1" ht="27" spans="1:7">
       <c r="A36" s="1">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>135</v>
@@ -2709,522 +2721,434 @@
       <c r="C36" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D36" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E36" s="2" t="s">
+      <c r="D36" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="E36" s="6" t="s">
         <v>73</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="G36" s="2" t="s">
-        <v>86</v>
+      <c r="G36" s="6" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="37" s="1" customFormat="1" ht="27" spans="1:7">
       <c r="A37" s="1">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F37" s="1"/>
-      <c r="G37" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" s="6" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="38" s="1" customFormat="1" ht="27" spans="1:7">
+      <c r="E37" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="38" s="1" customFormat="1" ht="40.5" spans="1:7">
       <c r="A38" s="1">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D38" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E38" s="2" t="s">
+      <c r="D38" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="E38" s="6" t="s">
         <v>73</v>
       </c>
       <c r="F38" s="1"/>
-      <c r="G38" s="2" t="s">
-        <v>142</v>
+      <c r="G38" s="6" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="39" s="1" customFormat="1" ht="27" spans="1:7">
       <c r="A39" s="1">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>146</v>
+        <v>28</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F39" s="1"/>
+      <c r="G39" s="6" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="40" s="1" customFormat="1" ht="27" spans="1:7">
       <c r="A40" s="1">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>149</v>
+        <v>40</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F40" s="1"/>
+      <c r="G40" s="6" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="41" s="1" customFormat="1" ht="27" spans="1:7">
       <c r="A41" s="1">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D41" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E41" s="2" t="s">
+      <c r="D41" s="6" t="s">
         <v>152</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>73</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="G41" s="2" t="s">
+      <c r="G41" s="6" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="42" s="1" customFormat="1" ht="40.5" spans="1:7">
+    <row r="42" s="1" customFormat="1" ht="27" spans="1:7">
       <c r="A42" s="1">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>155</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D42" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F42" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="E42" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F42" s="1"/>
-      <c r="G42" s="2" t="s">
+      <c r="G42" s="6" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="43" s="1" customFormat="1" ht="27" spans="1:7">
+    <row r="43" s="1" customFormat="1" ht="40.5" spans="1:7">
       <c r="A43" s="1">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>158</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D43" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D43" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="E43" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F43" s="1"/>
-      <c r="G43" s="2" t="s">
-        <v>160</v>
+      <c r="E43" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="44" s="1" customFormat="1" ht="27" spans="1:7">
       <c r="A44" s="1">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B44" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F44" s="1"/>
+      <c r="G44" s="6" t="s">
         <v>161</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F44" s="1"/>
-      <c r="G44" s="2" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="45" s="1" customFormat="1" ht="27" spans="1:7">
       <c r="A45" s="1">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>166</v>
+        <v>28</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F45" s="1"/>
+      <c r="G45" s="6" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="46" s="1" customFormat="1" ht="27" spans="1:7">
       <c r="A46" s="1">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D46" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F46" s="1"/>
+      <c r="G46" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="E46" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="47" s="1" customFormat="1" ht="40.5" spans="1:7">
+    </row>
+    <row r="47" s="1" customFormat="1" ht="27" spans="1:7">
       <c r="A47" s="1">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>152</v>
+        <v>33</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>73</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>154</v>
+        <v>166</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="48" s="1" customFormat="1" ht="27" spans="1:7">
       <c r="A48" s="1">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F48" s="1"/>
-      <c r="G48" s="2" t="s">
-        <v>173</v>
+        <v>11</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="49" s="1" customFormat="1" ht="27" spans="1:7">
       <c r="A49" s="1">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F49" s="1"/>
-      <c r="G49" s="2" t="s">
-        <v>76</v>
+        <v>11</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="G49" s="6" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="50" s="1" customFormat="1" ht="27" spans="1:7">
       <c r="A50" s="1">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B50" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="G50" s="6" t="s">
         <v>175</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F50" s="1"/>
-      <c r="G50" s="2" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="51" s="1" customFormat="1" ht="27" spans="1:7">
       <c r="A51" s="1">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B51" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F51" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="C51" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F51" s="1" t="s">
+      <c r="G51" s="6" t="s">
         <v>178</v>
-      </c>
-      <c r="G51" s="2" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="52" s="1" customFormat="1" ht="27" spans="1:7">
       <c r="A52" s="1">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>179</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D52" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D52" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="E52" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F52" s="1" t="s">
+      <c r="E52" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F52" s="1"/>
+      <c r="G52" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="53" s="1" customFormat="1" ht="40.5" spans="1:7">
+      <c r="A53" s="1">
+        <v>59</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="G52" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="53" s="1" customFormat="1" ht="27" spans="1:7">
-      <c r="A53" s="1">
-        <v>55</v>
-      </c>
-      <c r="B53" s="1" t="s">
+      <c r="C53" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D53" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="C53" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F53" s="1" t="s">
+      <c r="E53" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F53" s="1"/>
+      <c r="G53" s="6" t="s">
         <v>183</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="54" s="1" customFormat="1" ht="27" spans="1:7">
       <c r="A54" s="1">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B54" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D54" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="C54" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>187</v>
+      <c r="E54" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F54" s="1"/>
+      <c r="G54" s="6" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="55" s="1" customFormat="1" ht="27" spans="1:7">
       <c r="A55" s="1">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B55" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F55" s="1"/>
+      <c r="G55" s="6" t="s">
         <v>188</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="56" s="1" customFormat="1" ht="27" spans="1:7">
-      <c r="A56" s="1">
-        <v>58</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F56" s="1"/>
-      <c r="G56" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="57" s="1" customFormat="1" ht="40.5" spans="1:7">
-      <c r="A57" s="1">
-        <v>59</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F57" s="1"/>
-      <c r="G57" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="58" s="1" customFormat="1" ht="27" spans="1:7">
-      <c r="A58" s="1">
-        <v>60</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F58" s="1"/>
-      <c r="G58" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="59" s="1" customFormat="1" ht="27" spans="1:7">
-      <c r="A59" s="1">
-        <v>61</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F59" s="1"/>
-      <c r="G59" s="2" t="s">
-        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -3235,4 +3159,267 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="$A1:$XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
+  <cols>
+    <col min="1" max="1" width="14.5" style="5" customWidth="1"/>
+    <col min="2" max="2" width="20.375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="10.5" style="5" customWidth="1"/>
+    <col min="4" max="4" width="33.875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="24.5" style="5" customWidth="1"/>
+    <col min="6" max="9" width="14.5" style="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:9">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="54" spans="1:9">
+      <c r="A2" s="6">
+        <v>21</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="121.5" spans="1:9">
+      <c r="A3" s="6">
+        <v>22</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="94.5" spans="1:9">
+      <c r="A4" s="6">
+        <v>23</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="94.5" spans="1:9">
+      <c r="A5" s="6">
+        <v>24</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
+  <cols>
+    <col min="3" max="3" width="18.375" customWidth="1"/>
+    <col min="4" max="4" width="15.5" customWidth="1"/>
+    <col min="5" max="5" width="16.5" customWidth="1"/>
+    <col min="6" max="6" width="19.625" customWidth="1"/>
+    <col min="7" max="7" width="20.375" customWidth="1"/>
+    <col min="8" max="8" width="27" customWidth="1"/>
+    <col min="9" max="9" width="26.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:9">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" customFormat="1" ht="54" spans="1:9">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" ht="54" spans="1:9">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" display="https://minicourse.test.venhalo.com/api/v1/auth/verification/code" tooltip="https://minicourse.test.venhalo.com/api/v1/auth/verification/code"/>
+    <hyperlink ref="C3" r:id="rId2" display="https://minicourse.test.venhalo.com//api/v1/auth/verification/verify" tooltip="https://minicourse.test.venhalo.com//api/v1/auth/verification/verify"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>